--- a/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA9F478-6C94-4314-B5DC-4AE020DC6756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A937D86F-7E01-4881-95AE-B28D922E5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="2760" windowWidth="16995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수출입" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>순번</t>
   </si>
@@ -247,79 +247,85 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>▼ 0.36</t>
-  </si>
-  <si>
-    <t>▼ 3.2</t>
-  </si>
-  <si>
-    <t>▼ 0.37</t>
-  </si>
-  <si>
-    <t>▼ 4.01</t>
-  </si>
-  <si>
-    <t>▼ 0.01</t>
-  </si>
-  <si>
-    <t>▲ 2.27</t>
-  </si>
-  <si>
-    <t>▲ 0.14</t>
+    <t>▼ 0.28</t>
+  </si>
+  <si>
+    <t>▼ 3.9</t>
+  </si>
+  <si>
+    <t>▼ 0.44</t>
+  </si>
+  <si>
+    <t>▼ 2.82</t>
+  </si>
+  <si>
+    <t>▼ 0.02</t>
+  </si>
+  <si>
+    <t>▲ 4.9</t>
+  </si>
+  <si>
+    <t>▲ 0.1</t>
+  </si>
+  <si>
+    <t>▼ 0.05</t>
+  </si>
+  <si>
+    <t>▼ 0.41</t>
+  </si>
+  <si>
+    <t>▼ 0.25</t>
+  </si>
+  <si>
+    <t>▼ 1.66</t>
+  </si>
+  <si>
+    <t>▼ 0.57</t>
+  </si>
+  <si>
+    <t>▲ 0.01</t>
+  </si>
+  <si>
+    <t>▼ 0.56</t>
+  </si>
+  <si>
+    <t>▲ 2.96</t>
+  </si>
+  <si>
+    <t>▼ 1.06</t>
+  </si>
+  <si>
+    <t>▼ 0.92</t>
+  </si>
+  <si>
+    <t>▲ 0.8</t>
+  </si>
+  <si>
+    <t>▼ 0.32</t>
+  </si>
+  <si>
+    <t>▼ 0.1</t>
+  </si>
+  <si>
+    <t>▲ 0.18</t>
   </si>
   <si>
     <t>▼ 0.03</t>
   </si>
   <si>
-    <t>▼ 0.26</t>
-  </si>
-  <si>
-    <t>▼ 0.24</t>
-  </si>
-  <si>
-    <t>▼ 2.38</t>
-  </si>
-  <si>
-    <t>▼ 1.37</t>
-  </si>
-  <si>
-    <t>▲ 0.01</t>
-  </si>
-  <si>
-    <t>▼ 0.64</t>
-  </si>
-  <si>
-    <t>▲ 1.32</t>
-  </si>
-  <si>
-    <t>▼ 0.87</t>
-  </si>
-  <si>
-    <t>▼ 0.73</t>
-  </si>
-  <si>
-    <t>▲ 0.63</t>
-  </si>
-  <si>
-    <t>▼ 1.59</t>
-  </si>
-  <si>
-    <t>▼ 0.08</t>
-  </si>
-  <si>
-    <t>▲ 0.12</t>
-  </si>
-  <si>
-    <t>▼ 7.5</t>
-  </si>
-  <si>
-    <t>▼ 13.66</t>
-  </si>
-  <si>
-    <t>▲ 0.31</t>
-  </si>
-  <si>
-    <t>▼ 9.08</t>
+    <t>▼ 5.63</t>
+  </si>
+  <si>
+    <t>▼ 15.93</t>
+  </si>
+  <si>
+    <t>▲ 0.64</t>
+  </si>
+  <si>
+    <t>▼ 10.94</t>
+  </si>
+  <si>
+    <t>▼ 0.53</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,18 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1017,7 +1034,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1085,7 +1102,7 @@
         <v>12216</v>
       </c>
       <c r="H2" s="26">
-        <v>193.24</v>
+        <v>193.32</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>66</v>
@@ -1114,7 +1131,7 @@
         <v>35238</v>
       </c>
       <c r="H3" s="27">
-        <v>1401.9</v>
+        <v>1401.2</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>67</v>
@@ -1143,7 +1160,7 @@
         <v>22895</v>
       </c>
       <c r="H4" s="27">
-        <v>180.15</v>
+        <v>180.08</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>68</v>
@@ -1172,7 +1189,7 @@
         <v>-17229</v>
       </c>
       <c r="H5" s="27">
-        <v>906.26</v>
+        <v>907.45</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>69</v>
@@ -1201,7 +1218,7 @@
         <v>7425</v>
       </c>
       <c r="H6" s="27">
-        <v>16.62</v>
+        <v>16.61</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>70</v>
@@ -1230,7 +1247,7 @@
         <v>-5244</v>
       </c>
       <c r="H7" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>71</v>
@@ -1259,7 +1276,7 @@
         <v>2366</v>
       </c>
       <c r="H8" s="27">
-        <v>68.94</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>72</v>
@@ -1288,7 +1305,7 @@
         <v>4930</v>
       </c>
       <c r="H9" s="27">
-        <v>23.82</v>
+        <v>23.8</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>73</v>
@@ -1317,7 +1334,7 @@
         <v>-530</v>
       </c>
       <c r="H10" s="27">
-        <v>314.43</v>
+        <v>314.27999999999997</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>74</v>
@@ -1346,7 +1363,7 @@
         <v>2163</v>
       </c>
       <c r="H11" s="27">
-        <v>40.49</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>75</v>
@@ -1375,7 +1392,7 @@
         <v>-3931</v>
       </c>
       <c r="H12" s="27">
-        <v>1040.3699999999999</v>
+        <v>1041.0899999999999</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>76</v>
@@ -1404,7 +1421,7 @@
         <v>-12222</v>
       </c>
       <c r="H13" s="27">
-        <v>911.66</v>
+        <v>912.46</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>77</v>
@@ -1462,7 +1479,7 @@
         <v>1621</v>
       </c>
       <c r="H15" s="27">
-        <v>1003.72</v>
+        <v>1003.8</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>79</v>
@@ -1491,7 +1508,7 @@
         <v>-1198</v>
       </c>
       <c r="H16" s="27">
-        <v>1760.93</v>
+        <v>1762.57</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>80</v>
@@ -1520,7 +1537,7 @@
         <v>-4344</v>
       </c>
       <c r="H17" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>71</v>
@@ -1549,7 +1566,7 @@
         <v>2533</v>
       </c>
       <c r="H18" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>71</v>
@@ -1578,7 +1595,7 @@
         <v>-2831</v>
       </c>
       <c r="H19" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>71</v>
@@ -1607,7 +1624,7 @@
         <v>-1781</v>
       </c>
       <c r="H20" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>71</v>
@@ -1636,7 +1653,7 @@
         <v>-1627</v>
       </c>
       <c r="H21" s="27">
-        <v>381.68</v>
+        <v>381.49</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>81</v>
@@ -1665,7 +1682,7 @@
         <v>-10657</v>
       </c>
       <c r="H22" s="27">
-        <v>373.5</v>
+        <v>373.31</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>82</v>
@@ -1694,7 +1711,7 @@
         <v>642</v>
       </c>
       <c r="H23" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>71</v>
@@ -1723,7 +1740,7 @@
         <v>-144</v>
       </c>
       <c r="H24" s="27">
-        <v>127.39</v>
+        <v>127.56</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>83</v>
@@ -1752,7 +1769,7 @@
         <v>211</v>
       </c>
       <c r="H25" s="27">
-        <v>818.85</v>
+        <v>820.12</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>84</v>
@@ -1781,7 +1798,7 @@
         <v>1144</v>
       </c>
       <c r="H26" s="27">
-        <v>5.05</v>
+        <v>5.04</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>70</v>
@@ -1810,7 +1827,7 @@
         <v>869</v>
       </c>
       <c r="H27" s="27">
-        <v>28.21</v>
+        <v>28.19</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>85</v>
@@ -1839,7 +1856,7 @@
         <v>-1347</v>
       </c>
       <c r="H28" s="27">
-        <v>126.77</v>
+        <v>126.83</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>86</v>
@@ -1871,7 +1888,7 @@
         <v>11.73</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1">
@@ -1897,7 +1914,7 @@
         <v>-695</v>
       </c>
       <c r="H30" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>71</v>
@@ -1926,7 +1943,7 @@
         <v>875</v>
       </c>
       <c r="H31" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>71</v>
@@ -1955,10 +1972,10 @@
         <v>-2231</v>
       </c>
       <c r="H32" s="27">
-        <v>1573.75</v>
+        <v>1575.62</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
@@ -1984,10 +2001,10 @@
         <v>-5117</v>
       </c>
       <c r="H33" s="27">
-        <v>4553.1000000000004</v>
+        <v>4550.83</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1">
@@ -2013,10 +2030,10 @@
         <v>-325</v>
       </c>
       <c r="H34" s="27">
-        <v>196.74</v>
+        <v>197.07</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27" customHeight="1">
@@ -2042,7 +2059,7 @@
         <v>-387</v>
       </c>
       <c r="H35" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>71</v>
@@ -2071,10 +2088,10 @@
         <v>-302</v>
       </c>
       <c r="H36" s="27">
-        <v>3718.67</v>
+        <v>3716.81</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27" customHeight="1">
@@ -2100,7 +2117,7 @@
         <v>-778</v>
       </c>
       <c r="H37" s="27">
-        <v>1467.23</v>
+        <v>1469.86</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>71</v>
@@ -2129,14 +2146,22 @@
         <v>26</v>
       </c>
       <c r="H38" s="27">
-        <v>1043.78</v>
+        <v>1043.26</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I38">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="▲">
+      <formula>NOT(ISERROR(SEARCH("▲",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="▼">
+      <formula>NOT(ISERROR(SEARCH("▼",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A937D86F-7E01-4881-95AE-B28D922E5612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18507F1E-C8E4-48AE-89C5-C34C68D57145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="2760" windowWidth="16995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14640" yWindow="-11760" windowWidth="16995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수출입" sheetId="1" r:id="rId1"/>

--- a/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18507F1E-C8E4-48AE-89C5-C34C68D57145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F7FBE-87A0-4059-8C83-D1E75F94FAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="-11760" windowWidth="16995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수출입" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>순번</t>
   </si>
@@ -250,82 +250,85 @@
     <t>▼ 0.28</t>
   </si>
   <si>
-    <t>▼ 3.9</t>
-  </si>
-  <si>
-    <t>▼ 0.44</t>
-  </si>
-  <si>
-    <t>▼ 2.82</t>
+    <t>▼ 3.1</t>
+  </si>
+  <si>
+    <t>▼ 0.39</t>
+  </si>
+  <si>
+    <t>▲ 9.87</t>
+  </si>
+  <si>
+    <t>▼ 0.05</t>
+  </si>
+  <si>
+    <t>▼ 3.81</t>
+  </si>
+  <si>
+    <t>▼ 1.29</t>
+  </si>
+  <si>
+    <t>▲ 0.01</t>
+  </si>
+  <si>
+    <t>▲ 0.18</t>
+  </si>
+  <si>
+    <t>━</t>
+  </si>
+  <si>
+    <t>▼ 0.37</t>
+  </si>
+  <si>
+    <t>▼ 2.85</t>
   </si>
   <si>
     <t>▼ 0.02</t>
   </si>
   <si>
-    <t>▲ 4.9</t>
-  </si>
-  <si>
-    <t>▲ 0.1</t>
-  </si>
-  <si>
-    <t>▼ 0.05</t>
+    <t>▲ 0.13</t>
+  </si>
+  <si>
+    <t>▼ 2.64</t>
+  </si>
+  <si>
+    <t>▼ 0.84</t>
+  </si>
+  <si>
+    <t>▼ 1.05</t>
+  </si>
+  <si>
+    <t>▼ 0.19</t>
+  </si>
+  <si>
+    <t>▲ 3.07</t>
+  </si>
+  <si>
+    <t>▼ 0.01</t>
+  </si>
+  <si>
+    <t>▼ 0.06</t>
   </si>
   <si>
     <t>▼ 0.41</t>
   </si>
   <si>
-    <t>▼ 0.25</t>
-  </si>
-  <si>
-    <t>▼ 1.66</t>
-  </si>
-  <si>
-    <t>▼ 0.57</t>
-  </si>
-  <si>
-    <t>▲ 0.01</t>
-  </si>
-  <si>
-    <t>▼ 0.56</t>
-  </si>
-  <si>
-    <t>▲ 2.96</t>
-  </si>
-  <si>
-    <t>▼ 1.06</t>
-  </si>
-  <si>
-    <t>▼ 0.92</t>
-  </si>
-  <si>
-    <t>▲ 0.8</t>
-  </si>
-  <si>
-    <t>▼ 0.32</t>
-  </si>
-  <si>
-    <t>▼ 0.1</t>
-  </si>
-  <si>
-    <t>▲ 0.18</t>
-  </si>
-  <si>
     <t>▼ 0.03</t>
   </si>
   <si>
-    <t>▼ 5.63</t>
-  </si>
-  <si>
-    <t>▼ 15.93</t>
-  </si>
-  <si>
-    <t>▲ 0.64</t>
-  </si>
-  <si>
-    <t>▼ 10.94</t>
-  </si>
-  <si>
-    <t>▼ 0.53</t>
+    <t>▼ 0.12</t>
+  </si>
+  <si>
+    <t>▼ 10.23</t>
+  </si>
+  <si>
+    <t>▼ 0.52</t>
+  </si>
+  <si>
+    <t>▼ 8.42</t>
+  </si>
+  <si>
+    <t>▼ 3.23</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1105,7 @@
         <v>12216</v>
       </c>
       <c r="H2" s="26">
-        <v>193.32</v>
+        <v>192.13</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>66</v>
@@ -1131,7 +1134,7 @@
         <v>35238</v>
       </c>
       <c r="H3" s="27">
-        <v>1401.2</v>
+        <v>1393.9</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>67</v>
@@ -1160,7 +1163,7 @@
         <v>22895</v>
       </c>
       <c r="H4" s="27">
-        <v>180.08</v>
+        <v>179.12</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>68</v>
@@ -1189,7 +1192,7 @@
         <v>-17229</v>
       </c>
       <c r="H5" s="27">
-        <v>907.45</v>
+        <v>918.43</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>69</v>
@@ -1218,7 +1221,7 @@
         <v>7425</v>
       </c>
       <c r="H6" s="27">
-        <v>16.61</v>
+        <v>16.53</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>70</v>
@@ -1247,7 +1250,7 @@
         <v>-5244</v>
       </c>
       <c r="H7" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>71</v>
@@ -1276,7 +1279,7 @@
         <v>2366</v>
       </c>
       <c r="H8" s="27">
-        <v>68.900000000000006</v>
+        <v>67.5</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>72</v>
@@ -1305,7 +1308,7 @@
         <v>4930</v>
       </c>
       <c r="H9" s="27">
-        <v>23.8</v>
+        <v>23.69</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>73</v>
@@ -1334,7 +1337,7 @@
         <v>-530</v>
       </c>
       <c r="H10" s="27">
-        <v>314.27999999999997</v>
+        <v>313.06</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>74</v>
@@ -1363,7 +1366,7 @@
         <v>2163</v>
       </c>
       <c r="H11" s="27">
-        <v>40.479999999999997</v>
+        <v>40.31</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>75</v>
@@ -1392,7 +1395,7 @@
         <v>-3931</v>
       </c>
       <c r="H12" s="27">
-        <v>1041.0899999999999</v>
+        <v>1037.21</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>76</v>
@@ -1421,7 +1424,7 @@
         <v>-12222</v>
       </c>
       <c r="H13" s="27">
-        <v>912.46</v>
+        <v>904.22</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>77</v>
@@ -1450,7 +1453,7 @@
         <v>-1483</v>
       </c>
       <c r="H14" s="27">
-        <v>8.84</v>
+        <v>8.75</v>
       </c>
       <c r="I14" s="28" t="s">
         <v>78</v>
@@ -1479,7 +1482,7 @@
         <v>1621</v>
       </c>
       <c r="H15" s="27">
-        <v>1003.8</v>
+        <v>991.61</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>79</v>
@@ -1508,7 +1511,7 @@
         <v>-1198</v>
       </c>
       <c r="H16" s="27">
-        <v>1762.57</v>
+        <v>1755.9</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>80</v>
@@ -1537,7 +1540,7 @@
         <v>-4344</v>
       </c>
       <c r="H17" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>71</v>
@@ -1566,7 +1569,7 @@
         <v>2533</v>
       </c>
       <c r="H18" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>71</v>
@@ -1595,7 +1598,7 @@
         <v>-2831</v>
       </c>
       <c r="H19" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>71</v>
@@ -1624,7 +1627,7 @@
         <v>-1781</v>
       </c>
       <c r="H20" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>71</v>
@@ -1653,7 +1656,7 @@
         <v>-1627</v>
       </c>
       <c r="H21" s="27">
-        <v>381.49</v>
+        <v>379.5</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>81</v>
@@ -1682,7 +1685,7 @@
         <v>-10657</v>
       </c>
       <c r="H22" s="27">
-        <v>373.31</v>
+        <v>370.97</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>82</v>
@@ -1711,7 +1714,7 @@
         <v>642</v>
       </c>
       <c r="H23" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>71</v>
@@ -1740,7 +1743,7 @@
         <v>-144</v>
       </c>
       <c r="H24" s="27">
-        <v>127.56</v>
+        <v>127.29</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>83</v>
@@ -1769,7 +1772,7 @@
         <v>211</v>
       </c>
       <c r="H25" s="27">
-        <v>820.12</v>
+        <v>820.59</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>84</v>
@@ -1798,10 +1801,10 @@
         <v>1144</v>
       </c>
       <c r="H26" s="27">
-        <v>5.04</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1">
@@ -1827,10 +1830,10 @@
         <v>869</v>
       </c>
       <c r="H27" s="27">
-        <v>28.19</v>
+        <v>28.09</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1">
@@ -1856,10 +1859,10 @@
         <v>-1347</v>
       </c>
       <c r="H28" s="27">
-        <v>126.83</v>
+        <v>125.31</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1">
@@ -1885,10 +1888,10 @@
         <v>676</v>
       </c>
       <c r="H29" s="27">
-        <v>11.73</v>
+        <v>11.66</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1">
@@ -1914,7 +1917,7 @@
         <v>-695</v>
       </c>
       <c r="H30" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>71</v>
@@ -1943,7 +1946,7 @@
         <v>875</v>
       </c>
       <c r="H31" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>71</v>
@@ -1972,10 +1975,10 @@
         <v>-2231</v>
       </c>
       <c r="H32" s="27">
-        <v>1575.62</v>
+        <v>1577.88</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
@@ -2001,10 +2004,10 @@
         <v>-5117</v>
       </c>
       <c r="H33" s="27">
-        <v>4550.83</v>
+        <v>4529.91</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1">
@@ -2030,10 +2033,10 @@
         <v>-325</v>
       </c>
       <c r="H34" s="27">
-        <v>197.07</v>
+        <v>196.51</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27" customHeight="1">
@@ -2059,7 +2062,7 @@
         <v>-387</v>
       </c>
       <c r="H35" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>71</v>
@@ -2088,10 +2091,10 @@
         <v>-302</v>
       </c>
       <c r="H36" s="27">
-        <v>3716.81</v>
+        <v>3697.45</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27" customHeight="1">
@@ -2117,7 +2120,7 @@
         <v>-778</v>
       </c>
       <c r="H37" s="27">
-        <v>1469.86</v>
+        <v>1465.69</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>71</v>
@@ -2146,10 +2149,10 @@
         <v>26</v>
       </c>
       <c r="H38" s="27">
-        <v>1043.26</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F7FBE-87A0-4059-8C83-D1E75F94FAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13268EF-966E-4508-9B84-5CFC1F51488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="수출입" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>순번</t>
   </si>
@@ -247,88 +247,82 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>▼ 0.28</t>
-  </si>
-  <si>
-    <t>▼ 3.1</t>
-  </si>
-  <si>
-    <t>▼ 0.39</t>
-  </si>
-  <si>
-    <t>▲ 9.87</t>
-  </si>
-  <si>
-    <t>▼ 0.05</t>
-  </si>
-  <si>
-    <t>▼ 3.81</t>
-  </si>
-  <si>
-    <t>▼ 1.29</t>
+    <t>▲ 0.45</t>
+  </si>
+  <si>
+    <t>▲ 2.5</t>
+  </si>
+  <si>
+    <t>▲ 0.31</t>
+  </si>
+  <si>
+    <t>▲ 0.26</t>
   </si>
   <si>
     <t>▲ 0.01</t>
   </si>
   <si>
-    <t>▲ 0.18</t>
+    <t>▲ 6.68</t>
+  </si>
+  <si>
+    <t>▲ 0.3</t>
+  </si>
+  <si>
+    <t>▲ 0.11</t>
+  </si>
+  <si>
+    <t>▲ 1.27</t>
+  </si>
+  <si>
+    <t>▲ 0.13</t>
+  </si>
+  <si>
+    <t>▲ 2.17</t>
+  </si>
+  <si>
+    <t>▲ 3.02</t>
+  </si>
+  <si>
+    <t>▲ 4.19</t>
+  </si>
+  <si>
+    <t>▲ 10.69</t>
+  </si>
+  <si>
+    <t>▲ 0.68</t>
+  </si>
+  <si>
+    <t>▲ 0.85</t>
+  </si>
+  <si>
+    <t>▲ 0.39</t>
+  </si>
+  <si>
+    <t>▲ 1.34</t>
   </si>
   <si>
     <t>━</t>
   </si>
   <si>
-    <t>▼ 0.37</t>
-  </si>
-  <si>
-    <t>▼ 2.85</t>
-  </si>
-  <si>
-    <t>▼ 0.02</t>
-  </si>
-  <si>
-    <t>▲ 0.13</t>
-  </si>
-  <si>
-    <t>▼ 2.64</t>
-  </si>
-  <si>
-    <t>▼ 0.84</t>
-  </si>
-  <si>
-    <t>▼ 1.05</t>
-  </si>
-  <si>
-    <t>▼ 0.19</t>
-  </si>
-  <si>
-    <t>▲ 3.07</t>
-  </si>
-  <si>
-    <t>▼ 0.01</t>
-  </si>
-  <si>
-    <t>▼ 0.06</t>
-  </si>
-  <si>
-    <t>▼ 0.41</t>
-  </si>
-  <si>
-    <t>▼ 0.03</t>
-  </si>
-  <si>
-    <t>▼ 0.12</t>
-  </si>
-  <si>
-    <t>▼ 10.23</t>
-  </si>
-  <si>
-    <t>▼ 0.52</t>
-  </si>
-  <si>
-    <t>▼ 8.42</t>
-  </si>
-  <si>
-    <t>▼ 3.23</t>
+    <t>▲ 0.03</t>
+  </si>
+  <si>
+    <t>▲ 0.51</t>
+  </si>
+  <si>
+    <t>▲ 0.02</t>
+  </si>
+  <si>
+    <t>▲ 0.69</t>
+  </si>
+  <si>
+    <t>▲ 19.35</t>
+  </si>
+  <si>
+    <t>▲ 0.88</t>
+  </si>
+  <si>
+    <t>▲ 6.63</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1099,7 @@
         <v>12216</v>
       </c>
       <c r="H2" s="26">
-        <v>192.13</v>
+        <v>192.46</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>66</v>
@@ -1134,7 +1128,7 @@
         <v>35238</v>
       </c>
       <c r="H3" s="27">
-        <v>1393.9</v>
+        <v>1395.7</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>67</v>
@@ -1163,7 +1157,7 @@
         <v>22895</v>
       </c>
       <c r="H4" s="27">
-        <v>179.12</v>
+        <v>179.35</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>68</v>
@@ -1192,7 +1186,7 @@
         <v>-17229</v>
       </c>
       <c r="H5" s="27">
-        <v>918.43</v>
+        <v>920.59</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>69</v>
@@ -1250,7 +1244,7 @@
         <v>-5244</v>
       </c>
       <c r="H7" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>71</v>
@@ -1279,7 +1273,7 @@
         <v>2366</v>
       </c>
       <c r="H8" s="27">
-        <v>67.5</v>
+        <v>67.77</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>72</v>
@@ -1308,7 +1302,7 @@
         <v>4930</v>
       </c>
       <c r="H9" s="27">
-        <v>23.69</v>
+        <v>23.78</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>73</v>
@@ -1337,7 +1331,7 @@
         <v>-530</v>
       </c>
       <c r="H10" s="27">
-        <v>313.06</v>
+        <v>314.17</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>74</v>
@@ -1366,7 +1360,7 @@
         <v>2163</v>
       </c>
       <c r="H11" s="27">
-        <v>40.31</v>
+        <v>40.47</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>75</v>
@@ -1395,7 +1389,7 @@
         <v>-3931</v>
       </c>
       <c r="H12" s="27">
-        <v>1037.21</v>
+        <v>1039.55</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>76</v>
@@ -1424,7 +1418,7 @@
         <v>-12222</v>
       </c>
       <c r="H13" s="27">
-        <v>904.22</v>
+        <v>906.51</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>77</v>
@@ -1453,10 +1447,10 @@
         <v>-1483</v>
       </c>
       <c r="H14" s="27">
-        <v>8.75</v>
+        <v>8.76</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
@@ -1482,10 +1476,10 @@
         <v>1621</v>
       </c>
       <c r="H15" s="27">
-        <v>991.61</v>
+        <v>995.79</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
@@ -1511,10 +1505,10 @@
         <v>-1198</v>
       </c>
       <c r="H16" s="27">
-        <v>1755.9</v>
+        <v>1767.65</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
@@ -1540,7 +1534,7 @@
         <v>-4344</v>
       </c>
       <c r="H17" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>71</v>
@@ -1569,7 +1563,7 @@
         <v>2533</v>
       </c>
       <c r="H18" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>71</v>
@@ -1598,7 +1592,7 @@
         <v>-2831</v>
       </c>
       <c r="H19" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>71</v>
@@ -1627,7 +1621,7 @@
         <v>-1781</v>
       </c>
       <c r="H20" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>71</v>
@@ -1656,10 +1650,10 @@
         <v>-1627</v>
       </c>
       <c r="H21" s="27">
-        <v>379.5</v>
+        <v>379.99</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
@@ -1685,10 +1679,10 @@
         <v>-10657</v>
       </c>
       <c r="H22" s="27">
-        <v>370.97</v>
+        <v>371.64</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" customHeight="1">
@@ -1714,7 +1708,7 @@
         <v>642</v>
       </c>
       <c r="H23" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>71</v>
@@ -1743,10 +1737,10 @@
         <v>-144</v>
       </c>
       <c r="H24" s="27">
-        <v>127.29</v>
+        <v>127.75</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1">
@@ -1772,10 +1766,10 @@
         <v>211</v>
       </c>
       <c r="H25" s="27">
-        <v>820.59</v>
+        <v>821.93</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1">
@@ -1804,7 +1798,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1">
@@ -1830,10 +1824,10 @@
         <v>869</v>
       </c>
       <c r="H27" s="27">
-        <v>28.09</v>
+        <v>28.1</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="27" customHeight="1">
@@ -1859,10 +1853,10 @@
         <v>-1347</v>
       </c>
       <c r="H28" s="27">
-        <v>125.31</v>
+        <v>125.94</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1">
@@ -1888,10 +1882,10 @@
         <v>676</v>
       </c>
       <c r="H29" s="27">
-        <v>11.66</v>
+        <v>11.68</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1">
@@ -1917,7 +1911,7 @@
         <v>-695</v>
       </c>
       <c r="H30" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>71</v>
@@ -1946,7 +1940,7 @@
         <v>875</v>
       </c>
       <c r="H31" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>71</v>
@@ -1975,10 +1969,10 @@
         <v>-2231</v>
       </c>
       <c r="H32" s="27">
-        <v>1577.88</v>
+        <v>1579.92</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
@@ -2004,10 +1998,10 @@
         <v>-5117</v>
       </c>
       <c r="H33" s="27">
-        <v>4529.91</v>
+        <v>4546.99</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1">
@@ -2033,10 +2027,10 @@
         <v>-325</v>
       </c>
       <c r="H34" s="27">
-        <v>196.51</v>
+        <v>197.46</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27" customHeight="1">
@@ -2062,7 +2056,7 @@
         <v>-387</v>
       </c>
       <c r="H35" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>71</v>
@@ -2091,10 +2085,10 @@
         <v>-302</v>
       </c>
       <c r="H36" s="27">
-        <v>3697.45</v>
+        <v>3702.22</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27" customHeight="1">
@@ -2120,7 +2114,7 @@
         <v>-778</v>
       </c>
       <c r="H37" s="27">
-        <v>1465.69</v>
+        <v>1472.74</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>71</v>
@@ -2149,10 +2143,10 @@
         <v>26</v>
       </c>
       <c r="H38" s="27">
-        <v>1034.8900000000001</v>
+        <v>1041.06</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
+++ b/C_나라별_실시간_환율_조사/Result/한국수출입_및_환율조사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\C_나라별_실시간_환율_조사\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13268EF-966E-4508-9B84-5CFC1F51488E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1ADE81-105F-473D-AD45-40AF4E912EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>순번</t>
   </si>
@@ -247,82 +247,79 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>▲ 0.45</t>
-  </si>
-  <si>
-    <t>▲ 2.5</t>
-  </si>
-  <si>
-    <t>▲ 0.31</t>
-  </si>
-  <si>
-    <t>▲ 0.26</t>
+    <t>▲ 0.36</t>
+  </si>
+  <si>
+    <t>▲ 0.1</t>
+  </si>
+  <si>
+    <t>▼ 0.01</t>
+  </si>
+  <si>
+    <t>▲ 11.27</t>
+  </si>
+  <si>
+    <t>━</t>
+  </si>
+  <si>
+    <t>▲ 3.59</t>
+  </si>
+  <si>
+    <t>▼ 0.17</t>
   </si>
   <si>
     <t>▲ 0.01</t>
   </si>
   <si>
-    <t>▲ 6.68</t>
-  </si>
-  <si>
-    <t>▲ 0.3</t>
-  </si>
-  <si>
-    <t>▲ 0.11</t>
-  </si>
-  <si>
-    <t>▲ 1.27</t>
-  </si>
-  <si>
-    <t>▲ 0.13</t>
-  </si>
-  <si>
-    <t>▲ 2.17</t>
-  </si>
-  <si>
-    <t>▲ 3.02</t>
-  </si>
-  <si>
-    <t>▲ 4.19</t>
-  </si>
-  <si>
-    <t>▲ 10.69</t>
-  </si>
-  <si>
-    <t>▲ 0.68</t>
-  </si>
-  <si>
-    <t>▲ 0.85</t>
-  </si>
-  <si>
-    <t>▲ 0.39</t>
-  </si>
-  <si>
-    <t>▲ 1.34</t>
-  </si>
-  <si>
-    <t>━</t>
-  </si>
-  <si>
-    <t>▲ 0.03</t>
-  </si>
-  <si>
-    <t>▲ 0.51</t>
+    <t>▲ 1.01</t>
+  </si>
+  <si>
+    <t>▲ 0.24</t>
+  </si>
+  <si>
+    <t>▲ 3.48</t>
+  </si>
+  <si>
+    <t>▲ 1.6</t>
   </si>
   <si>
     <t>▲ 0.02</t>
   </si>
   <si>
-    <t>▲ 0.69</t>
-  </si>
-  <si>
-    <t>▲ 19.35</t>
-  </si>
-  <si>
-    <t>▲ 0.88</t>
-  </si>
-  <si>
-    <t>▲ 6.63</t>
+    <t>▲ 0.43</t>
+  </si>
+  <si>
+    <t>▲ 5.71</t>
+  </si>
+  <si>
+    <t>▲ 0.04</t>
+  </si>
+  <si>
+    <t>▼ 0.06</t>
+  </si>
+  <si>
+    <t>▲ 0.37</t>
+  </si>
+  <si>
+    <t>▲ 3.41</t>
+  </si>
+  <si>
+    <t>▲ 0.06</t>
+  </si>
+  <si>
+    <t>▲ 6.39</t>
+  </si>
+  <si>
+    <t>▼ 0.41</t>
+  </si>
+  <si>
+    <t>▲ 0.53</t>
+  </si>
+  <si>
+    <t>▼ 1.6</t>
+  </si>
+  <si>
+    <t>▲ 0.5</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1096,7 @@
         <v>12216</v>
       </c>
       <c r="H2" s="26">
-        <v>192.46</v>
+        <v>192.73</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>66</v>
@@ -1128,7 +1125,7 @@
         <v>35238</v>
       </c>
       <c r="H3" s="27">
-        <v>1395.7</v>
+        <v>1395.8</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>67</v>
@@ -1157,7 +1154,7 @@
         <v>22895</v>
       </c>
       <c r="H4" s="27">
-        <v>179.35</v>
+        <v>179.34</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>68</v>
@@ -1186,7 +1183,7 @@
         <v>-17229</v>
       </c>
       <c r="H5" s="27">
-        <v>920.59</v>
+        <v>930.1</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>69</v>
@@ -1215,7 +1212,7 @@
         <v>7425</v>
       </c>
       <c r="H6" s="27">
-        <v>16.53</v>
+        <v>16.52</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>70</v>
@@ -1244,7 +1241,7 @@
         <v>-5244</v>
       </c>
       <c r="H7" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>71</v>
@@ -1273,7 +1270,7 @@
         <v>2366</v>
       </c>
       <c r="H8" s="27">
-        <v>67.77</v>
+        <v>68.34</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>72</v>
@@ -1302,7 +1299,7 @@
         <v>4930</v>
       </c>
       <c r="H9" s="27">
-        <v>23.78</v>
+        <v>23.79</v>
       </c>
       <c r="I9" s="28" t="s">
         <v>73</v>
@@ -1331,7 +1328,7 @@
         <v>-530</v>
       </c>
       <c r="H10" s="27">
-        <v>314.17</v>
+        <v>314.79000000000002</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>74</v>
@@ -1360,7 +1357,7 @@
         <v>2163</v>
       </c>
       <c r="H11" s="27">
-        <v>40.47</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>75</v>
@@ -1389,7 +1386,7 @@
         <v>-3931</v>
       </c>
       <c r="H12" s="27">
-        <v>1039.55</v>
+        <v>1041.95</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>76</v>
@@ -1418,7 +1415,7 @@
         <v>-12222</v>
       </c>
       <c r="H13" s="27">
-        <v>906.51</v>
+        <v>908.53</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>77</v>
@@ -1447,10 +1444,10 @@
         <v>-1483</v>
       </c>
       <c r="H14" s="27">
-        <v>8.76</v>
+        <v>8.81</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
@@ -1476,10 +1473,10 @@
         <v>1621</v>
       </c>
       <c r="H15" s="27">
-        <v>995.79</v>
+        <v>996.93</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
@@ -1505,10 +1502,10 @@
         <v>-1198</v>
       </c>
       <c r="H16" s="27">
-        <v>1767.65</v>
+        <v>1773.5</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
@@ -1534,7 +1531,7 @@
         <v>-4344</v>
       </c>
       <c r="H17" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I17" s="28" t="s">
         <v>71</v>
@@ -1563,7 +1560,7 @@
         <v>2533</v>
       </c>
       <c r="H18" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>71</v>
@@ -1592,7 +1589,7 @@
         <v>-2831</v>
       </c>
       <c r="H19" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>71</v>
@@ -1621,7 +1618,7 @@
         <v>-1781</v>
       </c>
       <c r="H20" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>71</v>
@@ -1650,10 +1647,10 @@
         <v>-1627</v>
       </c>
       <c r="H21" s="27">
-        <v>379.99</v>
+        <v>380.02</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
@@ -1679,10 +1676,10 @@
         <v>-10657</v>
       </c>
       <c r="H22" s="27">
-        <v>371.64</v>
+        <v>371.55</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="27" customHeight="1">
@@ -1708,7 +1705,7 @@
         <v>642</v>
       </c>
       <c r="H23" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>71</v>
@@ -1737,10 +1734,10 @@
         <v>-144</v>
       </c>
       <c r="H24" s="27">
-        <v>127.75</v>
+        <v>128.06</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="27" customHeight="1">
@@ -1766,10 +1763,10 @@
         <v>211</v>
       </c>
       <c r="H25" s="27">
-        <v>821.93</v>
+        <v>825.62</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="27" customHeight="1">
@@ -1798,7 +1795,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="27" customHeight="1">
@@ -1824,7 +1821,7 @@
         <v>869</v>
       </c>
       <c r="H27" s="27">
-        <v>28.1</v>
+        <v>28.15</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>85</v>
@@ -1853,10 +1850,10 @@
         <v>-1347</v>
       </c>
       <c r="H28" s="27">
-        <v>125.94</v>
+        <v>126.2</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="27" customHeight="1">
@@ -1885,7 +1882,7 @@
         <v>11.68</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1">
@@ -1911,7 +1908,7 @@
         <v>-695</v>
       </c>
       <c r="H30" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>71</v>
@@ -1940,7 +1937,7 @@
         <v>875</v>
       </c>
       <c r="H31" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>71</v>
@@ -1969,10 +1966,10 @@
         <v>-2231</v>
       </c>
       <c r="H32" s="27">
-        <v>1579.92</v>
+        <v>1585.06</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
@@ -1998,10 +1995,10 @@
         <v>-5117</v>
       </c>
       <c r="H33" s="27">
-        <v>4546.99</v>
+        <v>4539.93</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1">
@@ -2027,10 +2024,10 @@
         <v>-325</v>
       </c>
       <c r="H34" s="27">
-        <v>197.46</v>
+        <v>197.86</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27" customHeight="1">
@@ -2056,7 +2053,7 @@
         <v>-387</v>
       </c>
       <c r="H35" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>71</v>
@@ -2085,10 +2082,10 @@
         <v>-302</v>
       </c>
       <c r="H36" s="27">
-        <v>3702.22</v>
+        <v>3702.49</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="27" customHeight="1">
@@ -2114,7 +2111,7 @@
         <v>-778</v>
       </c>
       <c r="H37" s="27">
-        <v>1472.74</v>
+        <v>1475.36</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>71</v>
@@ -2143,10 +2140,10 @@
         <v>26</v>
       </c>
       <c r="H38" s="27">
-        <v>1041.06</v>
+        <v>1039.3499999999999</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
